--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -1515,16 +1515,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="8"/>
   </si>
@@ -1578,6 +1568,10 @@
   <si>
     <t>　・Nablarch開発標準</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テスト種別＆観点カタログ©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -5163,7 +5157,9 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="AN33" sqref="AN33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75"/>
   <cols>
@@ -6003,7 +5999,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
@@ -6079,7 +6075,7 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -6339,9 +6335,7 @@
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
-      <c r="R32" s="46" t="s">
-        <v>105</v>
-      </c>
+      <c r="R32" s="46"/>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -6511,12 +6505,12 @@
     <row r="37" spans="1:35" ht="13.5" customHeight="1">
       <c r="A37" s="35"/>
       <c r="B37" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -6530,7 +6524,7 @@
       <c r="O37" s="49"/>
       <c r="P37" s="49"/>
       <c r="S37" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -6551,7 +6545,9 @@
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
+      <c r="B38" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -7549,13 +7545,13 @@
     </row>
     <row r="5" spans="2:17">
       <c r="C5" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:17">
       <c r="C6" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -7565,7 +7561,7 @@
     </row>
     <row r="7" spans="2:17">
       <c r="C7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -7839,6 +7835,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141AAAD-12A9-482D-B95F-45BD08F8153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9090" windowHeight="12360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">テスト種別!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1071,90 +1083,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・テスト対象システムのパフォーマンスについて、性能目標値との差分やボトルネックとなる処理を発見する。必要に応じて、SQL、1画面・1バッチなどの単位でも実施する。
-・納品後にリソース増強が計画されている場合、リソース増強後のパフォーマンスについて、想定との差分を発見する。</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・以下の場合に発生するシステムの動作不良を発見する。
-　・システムが処理できる最大負荷量を目標とし、徐々に負荷を加えた場合
-　・システムが処理できる最大の負荷を、短時間で一気に加えた場合
-　・トランザクションの入り口が複数あるような同時処理が物理的に可能な環境で、複数の処理を同時に実行した場合</t>
-    <rPh sb="1" eb="3">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハッケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・将来の増分を考慮した負荷量が加えられた場合に発生するシステムの動作不良(※)を発見する。
-・将来の増分を考慮した負荷により、リソースが不足している場合に発生するシステムの動作不良(※)を発見する。
-　※：正常終了しない状態以外に、想定通りのエラーリカバリが行われない状態を含む</t>
-    <rPh sb="23" eb="25">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ハッケン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・アプリケーションの長期稼働を見据え、一定の負荷状態が長時間続いた状態で発生するメモリリークなどの異常を発見する。</t>
     <rPh sb="10" eb="12">
       <t>チョウキ</t>
@@ -1526,10 +1454,6 @@
     <t>の下に提供されています。</t>
   </si>
   <si>
-    <t>2018年8月16日</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>　・要件定義フレームワーク (2.20)</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -1562,26 +1486,133 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>第1.2版</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・Nablarch開発標準</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テスト種別＆観点カタログ©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・以下の場合に発生するシステムの動作不良を発見する。
+　・システムが処理できる最大負荷量を目標とし、徐々に負荷を加えた場合
+　・システムが処理できる最大の負荷を、短時間で一気に加えた場合
+　・システムが処理できる最大負荷量を超えた負荷を加えた場合
+　・トランザクションの入り口が複数あるような同時処理が物理的に可能な環境で、複数の処理を同時に実行した場合</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・将来の増分を考慮したデータ量やデータサイズによる負荷が加えられた場合に発生するシステムの動作不良(※)を発見する。
+・将来の増分を考慮したデータ量やデータサイズの負荷により、リソースが不足している場合に発生するシステムの動作不良(※)を発見する。
+　※：正常終了しない状態以外に、想定通りのエラーリカバリが行われない状態を含む</t>
+    <rPh sb="14" eb="15">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・テスト対象システムに平常時やピーク時の負荷を加えた場合のパフォーマンスについて、性能目標値との差分やボトルネックとなる処理を発見する。必要に応じて、SQL、1画面・1バッチなどの単位でも実施する。
+・納品後にリソース増強が計画されている場合、リソース増強後のパフォーマンスについて、想定との差分を発見する。</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヘイジョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第1.3版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年3月31日</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -4150,566 +4181,566 @@
     </xf>
   </cellXfs>
   <cellStyles count="560">
-    <cellStyle name="20% - アクセント 1 2" xfId="7"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="Calc Currency (0)" xfId="25"/>
-    <cellStyle name="Header1" xfId="26"/>
-    <cellStyle name="Header2" xfId="27"/>
-    <cellStyle name="Header2 2" xfId="28"/>
-    <cellStyle name="Header2 2 10" xfId="29"/>
-    <cellStyle name="Header2 2 10 2" xfId="30"/>
-    <cellStyle name="Header2 2 11" xfId="31"/>
-    <cellStyle name="Header2 2 11 2" xfId="32"/>
-    <cellStyle name="Header2 2 12" xfId="33"/>
-    <cellStyle name="Header2 2 12 2" xfId="34"/>
-    <cellStyle name="Header2 2 13" xfId="35"/>
-    <cellStyle name="Header2 2 2" xfId="36"/>
-    <cellStyle name="Header2 2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 3" xfId="39"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="40"/>
-    <cellStyle name="Header2 2 2 4" xfId="41"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="42"/>
-    <cellStyle name="Header2 2 2 5" xfId="43"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="44"/>
-    <cellStyle name="Header2 2 2 6" xfId="45"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="46"/>
-    <cellStyle name="Header2 2 2 7" xfId="47"/>
-    <cellStyle name="Header2 2 3" xfId="48"/>
-    <cellStyle name="Header2 2 4" xfId="49"/>
-    <cellStyle name="Header2 2 4 2" xfId="50"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 3" xfId="52"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="53"/>
-    <cellStyle name="Header2 2 4 4" xfId="54"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="55"/>
-    <cellStyle name="Header2 2 4 5" xfId="56"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="57"/>
-    <cellStyle name="Header2 2 4 6" xfId="58"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="59"/>
-    <cellStyle name="Header2 2 4 7" xfId="60"/>
-    <cellStyle name="Header2 2 5" xfId="61"/>
-    <cellStyle name="Header2 2 5 2" xfId="62"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 3" xfId="64"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="65"/>
-    <cellStyle name="Header2 2 5 4" xfId="66"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="67"/>
-    <cellStyle name="Header2 2 5 5" xfId="68"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="69"/>
-    <cellStyle name="Header2 2 5 6" xfId="70"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="71"/>
-    <cellStyle name="Header2 2 5 7" xfId="72"/>
-    <cellStyle name="Header2 2 6" xfId="73"/>
-    <cellStyle name="Header2 2 6 2" xfId="74"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 3" xfId="76"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="77"/>
-    <cellStyle name="Header2 2 6 4" xfId="78"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="79"/>
-    <cellStyle name="Header2 2 6 5" xfId="80"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="81"/>
-    <cellStyle name="Header2 2 6 6" xfId="82"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="83"/>
-    <cellStyle name="Header2 2 6 7" xfId="84"/>
-    <cellStyle name="Header2 2 7" xfId="85"/>
-    <cellStyle name="Header2 2 7 2" xfId="86"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 3" xfId="88"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="89"/>
-    <cellStyle name="Header2 2 7 4" xfId="90"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="91"/>
-    <cellStyle name="Header2 2 7 5" xfId="92"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="93"/>
-    <cellStyle name="Header2 2 7 6" xfId="94"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="95"/>
-    <cellStyle name="Header2 2 7 7" xfId="96"/>
-    <cellStyle name="Header2 2 8" xfId="97"/>
-    <cellStyle name="Header2 2 8 2" xfId="98"/>
-    <cellStyle name="Header2 2 9" xfId="99"/>
-    <cellStyle name="Header2 2 9 2" xfId="100"/>
-    <cellStyle name="Header2 3" xfId="101"/>
-    <cellStyle name="Header2 3 10" xfId="102"/>
-    <cellStyle name="Header2 3 10 2" xfId="103"/>
-    <cellStyle name="Header2 3 11" xfId="104"/>
-    <cellStyle name="Header2 3 11 2" xfId="105"/>
-    <cellStyle name="Header2 3 12" xfId="106"/>
-    <cellStyle name="Header2 3 2" xfId="107"/>
-    <cellStyle name="Header2 3 2 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 3" xfId="110"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="111"/>
-    <cellStyle name="Header2 3 2 4" xfId="112"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="113"/>
-    <cellStyle name="Header2 3 2 5" xfId="114"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="115"/>
-    <cellStyle name="Header2 3 2 6" xfId="116"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="117"/>
-    <cellStyle name="Header2 3 2 7" xfId="118"/>
-    <cellStyle name="Header2 3 3" xfId="119"/>
-    <cellStyle name="Header2 3 3 2" xfId="120"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 3" xfId="122"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="123"/>
-    <cellStyle name="Header2 3 3 4" xfId="124"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="125"/>
-    <cellStyle name="Header2 3 3 5" xfId="126"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="127"/>
-    <cellStyle name="Header2 3 3 6" xfId="128"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="129"/>
-    <cellStyle name="Header2 3 3 7" xfId="130"/>
-    <cellStyle name="Header2 3 4" xfId="131"/>
-    <cellStyle name="Header2 3 4 2" xfId="132"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 3" xfId="134"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="135"/>
-    <cellStyle name="Header2 3 4 4" xfId="136"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="137"/>
-    <cellStyle name="Header2 3 4 5" xfId="138"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="139"/>
-    <cellStyle name="Header2 3 4 6" xfId="140"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="141"/>
-    <cellStyle name="Header2 3 4 7" xfId="142"/>
-    <cellStyle name="Header2 3 5" xfId="143"/>
-    <cellStyle name="Header2 3 5 2" xfId="144"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 3" xfId="146"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="147"/>
-    <cellStyle name="Header2 3 5 4" xfId="148"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="149"/>
-    <cellStyle name="Header2 3 5 5" xfId="150"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="151"/>
-    <cellStyle name="Header2 3 5 6" xfId="152"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="153"/>
-    <cellStyle name="Header2 3 5 7" xfId="154"/>
-    <cellStyle name="Header2 3 6" xfId="155"/>
-    <cellStyle name="Header2 3 6 2" xfId="156"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 3" xfId="158"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="159"/>
-    <cellStyle name="Header2 3 6 4" xfId="160"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="161"/>
-    <cellStyle name="Header2 3 6 5" xfId="162"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="163"/>
-    <cellStyle name="Header2 3 6 6" xfId="164"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="165"/>
-    <cellStyle name="Header2 3 6 7" xfId="166"/>
-    <cellStyle name="Header2 3 7" xfId="167"/>
-    <cellStyle name="Header2 3 7 2" xfId="168"/>
-    <cellStyle name="Header2 3 8" xfId="169"/>
-    <cellStyle name="Header2 3 8 2" xfId="170"/>
-    <cellStyle name="Header2 3 9" xfId="171"/>
-    <cellStyle name="Header2 3 9 2" xfId="172"/>
-    <cellStyle name="Normal_#18-Internet" xfId="173"/>
-    <cellStyle name="アクセント 1 2" xfId="174"/>
-    <cellStyle name="アクセント 2 2" xfId="175"/>
-    <cellStyle name="アクセント 3 2" xfId="176"/>
-    <cellStyle name="アクセント 4 2" xfId="177"/>
-    <cellStyle name="アクセント 5 2" xfId="178"/>
-    <cellStyle name="アクセント 6 2" xfId="179"/>
-    <cellStyle name="タイトル 2" xfId="180"/>
-    <cellStyle name="チェック セル 2" xfId="181"/>
-    <cellStyle name="どちらでもない 2" xfId="182"/>
-    <cellStyle name="パーセント 2" xfId="183"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Header1" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Header2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Header2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Header2 2 10" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Header2 2 11" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Header2 2 12" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Header2 2 13" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Header2 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header2 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Header2 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header2 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Header2 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Header2 2 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Header2 2 9" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Header2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Header2 3 10" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header2 3 11" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 3 12" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 3 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 3 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 3 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 3 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 3 8" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 3 9" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="タイトル 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="チェック セル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="パーセント 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
-    <cellStyle name="メモ 2" xfId="184"/>
-    <cellStyle name="メモ 2 2" xfId="185"/>
-    <cellStyle name="メモ 2 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="197"/>
-    <cellStyle name="メモ 2 2 3" xfId="198"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="209"/>
-    <cellStyle name="メモ 2 2 4" xfId="210"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="221"/>
-    <cellStyle name="メモ 2 2 5" xfId="222"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="233"/>
-    <cellStyle name="メモ 2 2 6" xfId="234"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="243"/>
-    <cellStyle name="メモ 2 2 7" xfId="244"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="245"/>
-    <cellStyle name="メモ 2 2 8" xfId="246"/>
-    <cellStyle name="メモ 2 3" xfId="247"/>
-    <cellStyle name="リンク セル 2" xfId="248"/>
-    <cellStyle name="悪い 2" xfId="249"/>
-    <cellStyle name="計算 2" xfId="250"/>
-    <cellStyle name="計算 2 2" xfId="251"/>
-    <cellStyle name="計算 2 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 3" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="256"/>
-    <cellStyle name="計算 2 2 2 4" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="258"/>
-    <cellStyle name="計算 2 2 2 5" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="260"/>
-    <cellStyle name="計算 2 2 2 6" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="262"/>
-    <cellStyle name="計算 2 2 2 7" xfId="263"/>
-    <cellStyle name="計算 2 2 3" xfId="264"/>
-    <cellStyle name="計算 2 2 3 2" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 3" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="268"/>
-    <cellStyle name="計算 2 2 3 4" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="270"/>
-    <cellStyle name="計算 2 2 3 5" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="272"/>
-    <cellStyle name="計算 2 2 3 6" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="274"/>
-    <cellStyle name="計算 2 2 3 7" xfId="275"/>
-    <cellStyle name="計算 2 2 4" xfId="276"/>
-    <cellStyle name="計算 2 2 4 2" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 3" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="280"/>
-    <cellStyle name="計算 2 2 4 4" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="282"/>
-    <cellStyle name="計算 2 2 4 5" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="284"/>
-    <cellStyle name="計算 2 2 4 6" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="286"/>
-    <cellStyle name="計算 2 2 4 7" xfId="287"/>
-    <cellStyle name="計算 2 2 5" xfId="288"/>
-    <cellStyle name="計算 2 2 5 2" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 3" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="292"/>
-    <cellStyle name="計算 2 2 5 4" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="294"/>
-    <cellStyle name="計算 2 2 5 5" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="296"/>
-    <cellStyle name="計算 2 2 5 6" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="298"/>
-    <cellStyle name="計算 2 2 5 7" xfId="299"/>
-    <cellStyle name="計算 2 2 6" xfId="300"/>
-    <cellStyle name="計算 2 2 6 2" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 3" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="304"/>
-    <cellStyle name="計算 2 2 6 4" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="306"/>
-    <cellStyle name="計算 2 2 6 5" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="308"/>
-    <cellStyle name="計算 2 2 6 6" xfId="309"/>
-    <cellStyle name="計算 2 2 7" xfId="310"/>
-    <cellStyle name="計算 2 2 7 2" xfId="311"/>
-    <cellStyle name="計算 2 2 8" xfId="312"/>
-    <cellStyle name="計算 2 3" xfId="313"/>
-    <cellStyle name="警告文 2" xfId="314"/>
-    <cellStyle name="見出し 1 2" xfId="315"/>
-    <cellStyle name="見出し 2 2" xfId="316"/>
-    <cellStyle name="見出し 3 2" xfId="317"/>
-    <cellStyle name="見出し 4 2" xfId="318"/>
-    <cellStyle name="集計 2" xfId="319"/>
-    <cellStyle name="集計 2 2" xfId="320"/>
-    <cellStyle name="集計 2 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 3" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="325"/>
-    <cellStyle name="集計 2 2 2 4" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="327"/>
-    <cellStyle name="集計 2 2 2 5" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="329"/>
-    <cellStyle name="集計 2 2 2 6" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="331"/>
-    <cellStyle name="集計 2 2 2 7" xfId="332"/>
-    <cellStyle name="集計 2 2 3" xfId="333"/>
-    <cellStyle name="集計 2 2 3 2" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 3" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="337"/>
-    <cellStyle name="集計 2 2 3 4" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="339"/>
-    <cellStyle name="集計 2 2 3 5" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="341"/>
-    <cellStyle name="集計 2 2 3 6" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="343"/>
-    <cellStyle name="集計 2 2 3 7" xfId="344"/>
-    <cellStyle name="集計 2 2 4" xfId="345"/>
-    <cellStyle name="集計 2 2 4 2" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 3" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="349"/>
-    <cellStyle name="集計 2 2 4 4" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="351"/>
-    <cellStyle name="集計 2 2 4 5" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="353"/>
-    <cellStyle name="集計 2 2 4 6" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="355"/>
-    <cellStyle name="集計 2 2 4 7" xfId="356"/>
-    <cellStyle name="集計 2 2 5" xfId="357"/>
-    <cellStyle name="集計 2 2 5 2" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 3" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="361"/>
-    <cellStyle name="集計 2 2 5 4" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="363"/>
-    <cellStyle name="集計 2 2 5 5" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="365"/>
-    <cellStyle name="集計 2 2 5 6" xfId="366"/>
-    <cellStyle name="集計 2 2 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6 2" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 3" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="371"/>
-    <cellStyle name="集計 2 2 6 4" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="373"/>
-    <cellStyle name="集計 2 2 6 5" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="375"/>
-    <cellStyle name="集計 2 2 6 6" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="377"/>
-    <cellStyle name="集計 2 2 6 7" xfId="378"/>
-    <cellStyle name="集計 2 2 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7 2" xfId="380"/>
-    <cellStyle name="集計 2 2 8" xfId="381"/>
-    <cellStyle name="集計 2 3" xfId="382"/>
-    <cellStyle name="出力 2" xfId="383"/>
-    <cellStyle name="出力 2 2" xfId="384"/>
-    <cellStyle name="出力 2 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 3" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="389"/>
-    <cellStyle name="出力 2 2 2 4" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="391"/>
-    <cellStyle name="出力 2 2 2 5" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="393"/>
-    <cellStyle name="出力 2 2 2 6" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="395"/>
-    <cellStyle name="出力 2 2 2 7" xfId="396"/>
-    <cellStyle name="出力 2 2 3" xfId="397"/>
-    <cellStyle name="出力 2 2 3 2" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 3" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="401"/>
-    <cellStyle name="出力 2 2 3 4" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="403"/>
-    <cellStyle name="出力 2 2 3 5" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="405"/>
-    <cellStyle name="出力 2 2 3 6" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="407"/>
-    <cellStyle name="出力 2 2 3 7" xfId="408"/>
-    <cellStyle name="出力 2 2 4" xfId="409"/>
-    <cellStyle name="出力 2 2 4 2" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 3" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="413"/>
-    <cellStyle name="出力 2 2 4 4" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="415"/>
-    <cellStyle name="出力 2 2 4 5" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="417"/>
-    <cellStyle name="出力 2 2 4 6" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="419"/>
-    <cellStyle name="出力 2 2 4 7" xfId="420"/>
-    <cellStyle name="出力 2 2 5" xfId="421"/>
-    <cellStyle name="出力 2 2 5 2" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 3" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="425"/>
-    <cellStyle name="出力 2 2 5 4" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="427"/>
-    <cellStyle name="出力 2 2 5 5" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="429"/>
-    <cellStyle name="出力 2 2 5 6" xfId="430"/>
-    <cellStyle name="出力 2 2 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6 2" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 3" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="435"/>
-    <cellStyle name="出力 2 2 6 4" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="437"/>
-    <cellStyle name="出力 2 2 6 5" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="439"/>
-    <cellStyle name="出力 2 2 6 6" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="441"/>
-    <cellStyle name="出力 2 2 6 7" xfId="442"/>
-    <cellStyle name="出力 2 2 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7 2" xfId="444"/>
-    <cellStyle name="出力 2 2 8" xfId="445"/>
-    <cellStyle name="出力 2 3" xfId="446"/>
-    <cellStyle name="説明文 2" xfId="447"/>
-    <cellStyle name="入力 2" xfId="448"/>
-    <cellStyle name="入力 2 2" xfId="449"/>
-    <cellStyle name="入力 2 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 3" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="454"/>
-    <cellStyle name="入力 2 2 2 4" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="456"/>
-    <cellStyle name="入力 2 2 2 5" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="458"/>
-    <cellStyle name="入力 2 2 2 6" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="460"/>
-    <cellStyle name="入力 2 2 2 7" xfId="461"/>
-    <cellStyle name="入力 2 2 3" xfId="462"/>
-    <cellStyle name="入力 2 2 3 2" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 3" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="466"/>
-    <cellStyle name="入力 2 2 3 4" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="468"/>
-    <cellStyle name="入力 2 2 3 5" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="470"/>
-    <cellStyle name="入力 2 2 3 6" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="472"/>
-    <cellStyle name="入力 2 2 3 7" xfId="473"/>
-    <cellStyle name="入力 2 2 4" xfId="474"/>
-    <cellStyle name="入力 2 2 4 2" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 3" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="478"/>
-    <cellStyle name="入力 2 2 4 4" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="480"/>
-    <cellStyle name="入力 2 2 4 5" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="482"/>
-    <cellStyle name="入力 2 2 4 6" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="484"/>
-    <cellStyle name="入力 2 2 4 7" xfId="485"/>
-    <cellStyle name="入力 2 2 5" xfId="486"/>
-    <cellStyle name="入力 2 2 5 2" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 3" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="490"/>
-    <cellStyle name="入力 2 2 5 4" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="492"/>
-    <cellStyle name="入力 2 2 5 5" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="494"/>
-    <cellStyle name="入力 2 2 5 6" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="496"/>
-    <cellStyle name="入力 2 2 5 7" xfId="497"/>
-    <cellStyle name="入力 2 2 6" xfId="498"/>
-    <cellStyle name="入力 2 2 6 2" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 3" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="502"/>
-    <cellStyle name="入力 2 2 6 4" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="504"/>
-    <cellStyle name="入力 2 2 6 5" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="506"/>
-    <cellStyle name="入力 2 2 6 6" xfId="507"/>
-    <cellStyle name="入力 2 2 7" xfId="508"/>
-    <cellStyle name="入力 2 2 7 2" xfId="509"/>
-    <cellStyle name="入力 2 2 8" xfId="510"/>
-    <cellStyle name="入力 2 3" xfId="511"/>
+    <cellStyle name="メモ 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="メモ 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="239" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="243" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="244" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="メモ 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="リンク セル 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="悪い 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="計算 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="計算 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="計算 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="267" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="271" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="275" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="283" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="285" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="287" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="288" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="289" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="293" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="295" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="297" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="299" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="300" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="305" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="307" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="309" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="計算 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="警告文 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="見出し 1 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="見出し 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="見出し 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="見出し 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="集計 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="集計 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="326" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="328" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="330" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="332" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="338" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="340" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="342" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="344" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="集計 2 2 4" xfId="345" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="356" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="集計 2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="366" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="集計 2 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="370" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="374" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="376" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="378" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="集計 2 2 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="集計 2 2 8" xfId="381" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="集計 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="出力 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="出力 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="出力 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="388" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="396" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="出力 2 2 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="400" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="404" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="406" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="408" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="出力 2 2 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="416" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="420" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="出力 2 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="428" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="出力 2 2 6" xfId="431" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="434" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="436" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="出力 2 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="出力 2 2 8" xfId="445" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="出力 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="説明文 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="入力 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="入力 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="入力 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="459" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="461" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="入力 2 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="466" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="467" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="469" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="入力 2 2 4" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="479" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="481" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="483" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="入力 2 2 5" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="491" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="493" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="497" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="入力 2 2 6" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="507" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="入力 2 2 7" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="入力 2 2 8" xfId="510" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="入力 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="512"/>
-    <cellStyle name="標準 11" xfId="513"/>
-    <cellStyle name="標準 11 2" xfId="514"/>
-    <cellStyle name="標準 11 2 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 3" xfId="517"/>
-    <cellStyle name="標準 11 2 3 2" xfId="518"/>
-    <cellStyle name="標準 11 2 4" xfId="519"/>
-    <cellStyle name="標準 11 2 4 2" xfId="520"/>
-    <cellStyle name="標準 11 2 5" xfId="521"/>
-    <cellStyle name="標準 11 3" xfId="522"/>
-    <cellStyle name="標準 11 3 2" xfId="523"/>
-    <cellStyle name="標準 11 3 2 2" xfId="524"/>
-    <cellStyle name="標準 11 3 3" xfId="525"/>
-    <cellStyle name="標準 11 3 3 2" xfId="526"/>
-    <cellStyle name="標準 11 3 4" xfId="527"/>
-    <cellStyle name="標準 11 4" xfId="528"/>
-    <cellStyle name="標準 11 4 2" xfId="529"/>
-    <cellStyle name="標準 11 5" xfId="530"/>
-    <cellStyle name="標準 11 5 2" xfId="531"/>
-    <cellStyle name="標準 11 6" xfId="532"/>
-    <cellStyle name="標準 11 6 2" xfId="533"/>
-    <cellStyle name="標準 11 7" xfId="534"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 2 2" xfId="535"/>
-    <cellStyle name="標準 2 2 2" xfId="536"/>
-    <cellStyle name="標準 2 3" xfId="537"/>
-    <cellStyle name="標準 2 4" xfId="538"/>
-    <cellStyle name="標準 2 4 2" xfId="539"/>
-    <cellStyle name="標準 2 4 2 2" xfId="540"/>
-    <cellStyle name="標準 2 4 3" xfId="541"/>
-    <cellStyle name="標準 2 4 4" xfId="542"/>
-    <cellStyle name="標準 2_フォーマット" xfId="543"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2" xfId="544"/>
-    <cellStyle name="標準 3 2 2" xfId="545"/>
-    <cellStyle name="標準 4" xfId="546"/>
-    <cellStyle name="標準 5" xfId="547"/>
-    <cellStyle name="標準 5 2" xfId="548"/>
-    <cellStyle name="標準 5 3" xfId="549"/>
-    <cellStyle name="標準 5 4" xfId="550"/>
-    <cellStyle name="標準 6" xfId="551"/>
-    <cellStyle name="標準 6 2" xfId="552"/>
-    <cellStyle name="標準 6 3" xfId="553"/>
-    <cellStyle name="標準 7" xfId="554"/>
-    <cellStyle name="標準 8" xfId="555"/>
-    <cellStyle name="標準 9" xfId="556"/>
-    <cellStyle name="標準_~6362950" xfId="1"/>
-    <cellStyle name="標準_~6362950 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="5"/>
-    <cellStyle name="未定義" xfId="557"/>
-    <cellStyle name="未定義 2" xfId="558"/>
-    <cellStyle name="良い 2" xfId="559"/>
+    <cellStyle name="標準 10" xfId="512" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 11" xfId="513" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 11 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 11 2 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 11 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="519" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="521" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 11 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="527" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 11 4" xfId="528" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 11 5" xfId="530" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="531" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 11 6" xfId="532" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 11 7" xfId="534" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 2 3" xfId="537" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 2 4" xfId="538" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="539" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="542" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="543" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4" xfId="546" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 5" xfId="547" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 5 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 5 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 5 4" xfId="550" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 6 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 6 3" xfId="553" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 7" xfId="554" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 9" xfId="556" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準_~6362950" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準_画面標準" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="未定義" xfId="557" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="未定義 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="良い 2" xfId="559" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4730,6 +4761,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4752,7 +4786,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4833,6 +4873,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -4866,7 +4911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4908,7 +4953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4941,9 +4986,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4976,6 +5038,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5151,22 +5230,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="AN33" sqref="AN33"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="4.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -5203,7 +5280,7 @@
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5240,7 +5317,7 @@
       <c r="AH2" s="35"/>
       <c r="AI2" s="35"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5277,7 +5354,7 @@
       <c r="AH3" s="35"/>
       <c r="AI3" s="35"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5314,7 +5391,7 @@
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -5351,7 +5428,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -5388,7 +5465,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -5425,7 +5502,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="35"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -5462,7 +5539,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5499,7 +5576,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -5536,7 +5613,7 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="35"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -5573,7 +5650,7 @@
       <c r="AH11" s="35"/>
       <c r="AI11" s="35"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -5610,7 +5687,7 @@
       <c r="AH12" s="35"/>
       <c r="AI12" s="35"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -5647,7 +5724,7 @@
       <c r="AH13" s="35"/>
       <c r="AI13" s="35"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -5684,7 +5761,7 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -5721,7 +5798,7 @@
       <c r="AH15" s="35"/>
       <c r="AI15" s="35"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -5758,7 +5835,7 @@
       <c r="AH16" s="35"/>
       <c r="AI16" s="35"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -5795,7 +5872,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="35"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -5832,7 +5909,7 @@
       <c r="AH18" s="35"/>
       <c r="AI18" s="35"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -5869,7 +5946,7 @@
       <c r="AH19" s="35"/>
       <c r="AI19" s="35"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -5906,7 +5983,7 @@
       <c r="AH20" s="35"/>
       <c r="AI20" s="35"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -5943,7 +6020,7 @@
       <c r="AH21" s="35"/>
       <c r="AI21" s="35"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -5980,7 +6057,7 @@
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -5999,7 +6076,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
@@ -6019,7 +6096,7 @@
       <c r="AH23" s="35"/>
       <c r="AI23" s="35"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -6056,7 +6133,7 @@
       <c r="AH24" s="35"/>
       <c r="AI24" s="35"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6075,7 +6152,7 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="42" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -6095,7 +6172,7 @@
       <c r="AH25" s="35"/>
       <c r="AI25" s="35"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -6132,7 +6209,7 @@
       <c r="AH26" s="35"/>
       <c r="AI26" s="35"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6169,7 +6246,7 @@
       <c r="AH27" s="35"/>
       <c r="AI27" s="35"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -6206,7 +6283,7 @@
       <c r="AH28" s="35"/>
       <c r="AI28" s="35"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -6243,7 +6320,7 @@
       <c r="AH29" s="35"/>
       <c r="AI29" s="35"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -6280,7 +6357,7 @@
       <c r="AH30" s="35"/>
       <c r="AI30" s="35"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -6317,7 +6394,7 @@
       <c r="AH31" s="35"/>
       <c r="AI31" s="35"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -6354,7 +6431,7 @@
       <c r="AH32" s="35"/>
       <c r="AI32" s="35"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75">
+    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -6391,7 +6468,7 @@
       <c r="AH33" s="35"/>
       <c r="AI33" s="35"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -6428,7 +6505,7 @@
       <c r="AH34" s="35"/>
       <c r="AI34" s="35"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -6465,7 +6542,7 @@
       <c r="AH35" s="35"/>
       <c r="AI35" s="35"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -6502,15 +6579,15 @@
       <c r="AH36" s="35"/>
       <c r="AI36" s="35"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="35"/>
       <c r="B37" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -6524,7 +6601,7 @@
       <c r="O37" s="49"/>
       <c r="P37" s="49"/>
       <c r="S37" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -6543,10 +6620,10 @@
       <c r="AH37" s="35"/>
       <c r="AI37" s="35"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="35"/>
       <c r="B38" s="35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -6582,484 +6659,484 @@
       <c r="AH38" s="35"/>
       <c r="AI38" s="35"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1"/>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId2"/>
@@ -7068,18 +7145,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
     <col min="2" max="3" width="17.5703125" style="4" customWidth="1"/>
@@ -7090,17 +7167,17 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5">
+    <row r="1" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
         <v>11</v>
       </c>
@@ -7118,7 +7195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -7136,7 +7213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7156,7 +7233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
         <v>64</v>
@@ -7172,7 +7249,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="45">
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="19" t="s">
         <v>65</v>
@@ -7188,7 +7265,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="60">
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -7206,7 +7283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="105">
+    <row r="9" spans="2:7" ht="105" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>48</v>
       </c>
@@ -7224,7 +7301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="60">
+    <row r="10" spans="2:7" ht="60" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
@@ -7242,7 +7319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30">
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
@@ -7260,7 +7337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="120">
+    <row r="12" spans="2:7" ht="120" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -7269,7 +7346,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>36</v>
@@ -7278,7 +7355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="105">
+    <row r="13" spans="2:7" ht="105" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -7287,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>37</v>
@@ -7296,7 +7373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="105">
+    <row r="14" spans="2:7" ht="105" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +7382,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>37</v>
@@ -7314,7 +7391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="60">
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
@@ -7323,7 +7400,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
@@ -7332,13 +7409,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="45">
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>59</v>
@@ -7350,16 +7427,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="75">
+    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>63</v>
@@ -7368,7 +7445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30">
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -7377,7 +7454,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
@@ -7386,63 +7463,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5">
+    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="6" customHeight="1"/>
-    <row r="33" spans="2:7">
+    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="54" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30">
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
@@ -7469,7 +7546,7 @@
         <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>19</v>
@@ -7478,7 +7555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30">
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
@@ -7487,7 +7564,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>27</v>
@@ -7511,47 +7588,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C4" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C6" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -7559,9 +7636,9 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C7" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -7569,39 +7646,39 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C8" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D15" s="17"/>
       <c r="J15" s="16" t="s">
@@ -7610,47 +7687,47 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C22" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="6.75" customHeight="1"/>
-    <row r="24" spans="2:18">
+    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
@@ -7672,7 +7749,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="24"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="26" t="s">
         <v>34</v>
@@ -7692,7 +7769,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C26" s="29"/>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
@@ -7710,7 +7787,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C27" s="21" t="s">
         <v>31</v>
       </c>
@@ -7732,7 +7809,7 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="24"/>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C28" s="33"/>
       <c r="D28" s="26" t="s">
         <v>46</v>
@@ -7752,10 +7829,10 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="28"/>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C29" s="34"/>
       <c r="D29" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -7772,7 +7849,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C30" s="21" t="s">
         <v>32</v>
       </c>
@@ -7794,7 +7871,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="24"/>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C31" s="33"/>
       <c r="D31" s="26" t="s">
         <v>47</v>
@@ -7814,7 +7891,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="28"/>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C32" s="34"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,20 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141AAAD-12A9-482D-B95F-45BD08F8153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077FADD-EC0B-40B0-AE7D-A69653207730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
-    <sheet name="テスト種別" sheetId="1" r:id="rId2"/>
-    <sheet name="補足" sheetId="2" r:id="rId3"/>
+    <sheet name="変更履歴" sheetId="7" r:id="rId2"/>
+    <sheet name="テスト種別" sheetId="1" r:id="rId3"/>
+    <sheet name="補足" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テスト種別!$B$3:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト種別!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">テスト種別!$B$3:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テスト種別!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">テスト種別!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">テスト種別!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
   <si>
     <t>目的</t>
     <phoneticPr fontId="2"/>
@@ -1604,6 +1607,154 @@
     <t>2022年3月31日</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>変更履歴</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>版数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>変更日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>変更項目の番号・名称</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="50"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ライセンス情報を付与</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テスト種別
+　性能テスト
+　ストレステスト
+　ボリュームテスト</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイノウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>性能テスト計画ガイドに合わせて、整合性が取れる表現に変更。</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※1.1版以前の履歴は、以下を参照してください。</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト種別&amp;観点カタログ変更履歴_第1.1版以前.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1612,7 +1763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1953,6 +2104,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -2084,7 +2249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2379,6 +2544,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="560">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4014,7 +4235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4173,11 +4394,63 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="512" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="512" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="512" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -5236,14 +5509,14 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="4.140625" style="38"/>
+    <col min="1" max="16384" width="4.1796875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -5280,7 +5553,7 @@
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="39"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5317,7 +5590,7 @@
       <c r="AH2" s="35"/>
       <c r="AI2" s="35"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5354,7 +5627,7 @@
       <c r="AH3" s="35"/>
       <c r="AI3" s="35"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5391,7 +5664,7 @@
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -5428,7 +5701,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -5465,7 +5738,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -5502,7 +5775,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="35"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -5539,7 +5812,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5576,7 +5849,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -5613,7 +5886,7 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="35"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -5650,7 +5923,7 @@
       <c r="AH11" s="35"/>
       <c r="AI11" s="35"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -5687,7 +5960,7 @@
       <c r="AH12" s="35"/>
       <c r="AI12" s="35"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -5724,7 +5997,7 @@
       <c r="AH13" s="35"/>
       <c r="AI13" s="35"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -5761,7 +6034,7 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -5798,7 +6071,7 @@
       <c r="AH15" s="35"/>
       <c r="AI15" s="35"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -5835,7 +6108,7 @@
       <c r="AH16" s="35"/>
       <c r="AI16" s="35"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -5872,7 +6145,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="35"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -5909,7 +6182,7 @@
       <c r="AH18" s="35"/>
       <c r="AI18" s="35"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -5946,7 +6219,7 @@
       <c r="AH19" s="35"/>
       <c r="AI19" s="35"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -5983,7 +6256,7 @@
       <c r="AH20" s="35"/>
       <c r="AI20" s="35"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6020,7 +6293,7 @@
       <c r="AH21" s="35"/>
       <c r="AI21" s="35"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -6057,7 +6330,7 @@
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -6096,7 +6369,7 @@
       <c r="AH23" s="35"/>
       <c r="AI23" s="35"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -6133,7 +6406,7 @@
       <c r="AH24" s="35"/>
       <c r="AI24" s="35"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6172,7 +6445,7 @@
       <c r="AH25" s="35"/>
       <c r="AI25" s="35"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -6209,7 +6482,7 @@
       <c r="AH26" s="35"/>
       <c r="AI26" s="35"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6246,7 +6519,7 @@
       <c r="AH27" s="35"/>
       <c r="AI27" s="35"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -6283,7 +6556,7 @@
       <c r="AH28" s="35"/>
       <c r="AI28" s="35"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -6320,7 +6593,7 @@
       <c r="AH29" s="35"/>
       <c r="AI29" s="35"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -6357,7 +6630,7 @@
       <c r="AH30" s="35"/>
       <c r="AI30" s="35"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -6394,7 +6667,7 @@
       <c r="AH31" s="35"/>
       <c r="AI31" s="35"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.6">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -6431,7 +6704,7 @@
       <c r="AH32" s="35"/>
       <c r="AI32" s="35"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" ht="25.5" x14ac:dyDescent="0.6">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -6468,7 +6741,7 @@
       <c r="AH33" s="35"/>
       <c r="AI33" s="35"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -6505,7 +6778,7 @@
       <c r="AH34" s="35"/>
       <c r="AI34" s="35"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -6542,7 +6815,7 @@
       <c r="AH35" s="35"/>
       <c r="AI35" s="35"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -6579,7 +6852,7 @@
       <c r="AH36" s="35"/>
       <c r="AI36" s="35"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="35"/>
       <c r="B37" s="35" t="s">
         <v>102</v>
@@ -6620,7 +6893,7 @@
       <c r="AH37" s="35"/>
       <c r="AI37" s="35"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="35"/>
       <c r="B38" s="35" t="s">
         <v>108</v>
@@ -6659,492 +6932,603 @@
       <c r="AH38" s="35"/>
       <c r="AI38" s="35"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="70" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" style="70" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="49.7265625" style="70" customWidth="1"/>
+    <col min="7" max="16384" width="3.90625" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="56" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="59" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="60">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="62">
+        <v>43370</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="59" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+      <c r="A6" s="65">
+        <v>2</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="67">
+        <v>44651</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{CD2569B6-57F5-47A6-AFED-45D1675380B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7156,32 +7540,32 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="17.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7195,7 +7579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -7213,7 +7597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7233,7 +7617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
         <v>64</v>
@@ -7249,7 +7633,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="19" t="s">
         <v>65</v>
@@ -7265,7 +7649,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="58" x14ac:dyDescent="0.5">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -7283,7 +7667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="105" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
       <c r="B9" s="12" t="s">
         <v>48</v>
       </c>
@@ -7301,7 +7685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="60" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="58" x14ac:dyDescent="0.5">
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
@@ -7319,7 +7703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
@@ -7337,7 +7721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="120" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="116" x14ac:dyDescent="0.5">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -7355,7 +7739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="105" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -7373,7 +7757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="105" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
       <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
@@ -7391,7 +7775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" ht="58" x14ac:dyDescent="0.5">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
@@ -7409,7 +7793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="72.5" x14ac:dyDescent="0.5">
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
@@ -7445,7 +7829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -7463,67 +7847,67 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="16" x14ac:dyDescent="0.5">
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B30" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="54" t="s">
+    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
@@ -7537,7 +7921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
@@ -7555,7 +7939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
@@ -7587,7 +7971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7596,37 +7980,37 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B2" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C3" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C4" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C6" s="17" t="s">
         <v>105</v>
       </c>
@@ -7636,7 +8020,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C7" s="17" t="s">
         <v>107</v>
       </c>
@@ -7646,37 +8030,37 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C8" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C14" s="17" t="s">
         <v>99</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C15" s="17" t="s">
         <v>100</v>
       </c>
@@ -7687,47 +8071,47 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C22" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
@@ -7749,7 +8133,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="24"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
       <c r="D25" s="26" t="s">
         <v>34</v>
@@ -7769,7 +8153,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C26" s="29"/>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
@@ -7787,7 +8171,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C27" s="21" t="s">
         <v>31</v>
       </c>
@@ -7809,7 +8193,7 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="24"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C28" s="33"/>
       <c r="D28" s="26" t="s">
         <v>46</v>
@@ -7829,7 +8213,7 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="28"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C29" s="34"/>
       <c r="D29" s="30" t="s">
         <v>101</v>
@@ -7849,7 +8233,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C30" s="21" t="s">
         <v>32</v>
       </c>
@@ -7871,7 +8255,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="24"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C31" s="33"/>
       <c r="D31" s="26" t="s">
         <v>47</v>
@@ -7891,7 +8275,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="28"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C32" s="34"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077FADD-EC0B-40B0-AE7D-A69653207730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E070A9A-C56B-411B-95D6-51A0786353D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -4443,14 +4443,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -5509,7 +5509,7 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -7421,9 +7421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7451,7 +7449,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7562,10 +7560,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7904,10 +7902,10 @@
     </row>
     <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E070A9A-C56B-411B-95D6-51A0786353D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CD188F-5DE8-405C-B2E0-D050B88F749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -5509,14 +5509,14 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="4.1796875" style="38"/>
+    <col min="1" max="16384" width="4.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -5553,7 +5553,7 @@
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5590,7 +5590,7 @@
       <c r="AH2" s="35"/>
       <c r="AI2" s="35"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5627,7 +5627,7 @@
       <c r="AH3" s="35"/>
       <c r="AI3" s="35"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5664,7 +5664,7 @@
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -5701,7 +5701,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -5738,7 +5738,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -5775,7 +5775,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="35"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -5812,7 +5812,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5849,7 +5849,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -5886,7 +5886,7 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="35"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -5923,7 +5923,7 @@
       <c r="AH11" s="35"/>
       <c r="AI11" s="35"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -5960,7 +5960,7 @@
       <c r="AH12" s="35"/>
       <c r="AI12" s="35"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -5997,7 +5997,7 @@
       <c r="AH13" s="35"/>
       <c r="AI13" s="35"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -6034,7 +6034,7 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6071,7 +6071,7 @@
       <c r="AH15" s="35"/>
       <c r="AI15" s="35"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -6108,7 +6108,7 @@
       <c r="AH16" s="35"/>
       <c r="AI16" s="35"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6145,7 +6145,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="35"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -6182,7 +6182,7 @@
       <c r="AH18" s="35"/>
       <c r="AI18" s="35"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -6219,7 +6219,7 @@
       <c r="AH19" s="35"/>
       <c r="AI19" s="35"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -6256,7 +6256,7 @@
       <c r="AH20" s="35"/>
       <c r="AI20" s="35"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6293,7 +6293,7 @@
       <c r="AH21" s="35"/>
       <c r="AI21" s="35"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -6330,7 +6330,7 @@
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -6369,7 +6369,7 @@
       <c r="AH23" s="35"/>
       <c r="AI23" s="35"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -6406,7 +6406,7 @@
       <c r="AH24" s="35"/>
       <c r="AI24" s="35"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6445,7 +6445,7 @@
       <c r="AH25" s="35"/>
       <c r="AI25" s="35"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -6482,7 +6482,7 @@
       <c r="AH26" s="35"/>
       <c r="AI26" s="35"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6519,7 +6519,7 @@
       <c r="AH27" s="35"/>
       <c r="AI27" s="35"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -6556,7 +6556,7 @@
       <c r="AH28" s="35"/>
       <c r="AI28" s="35"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -6593,7 +6593,7 @@
       <c r="AH29" s="35"/>
       <c r="AI29" s="35"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -6630,7 +6630,7 @@
       <c r="AH30" s="35"/>
       <c r="AI30" s="35"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -6667,7 +6667,7 @@
       <c r="AH31" s="35"/>
       <c r="AI31" s="35"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -6704,7 +6704,7 @@
       <c r="AH32" s="35"/>
       <c r="AI32" s="35"/>
     </row>
-    <row r="33" spans="1:35" ht="25.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -6741,7 +6741,7 @@
       <c r="AH33" s="35"/>
       <c r="AI33" s="35"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -6778,7 +6778,7 @@
       <c r="AH34" s="35"/>
       <c r="AI34" s="35"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -6815,7 +6815,7 @@
       <c r="AH35" s="35"/>
       <c r="AI35" s="35"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -6852,7 +6852,7 @@
       <c r="AH36" s="35"/>
       <c r="AI36" s="35"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="35"/>
       <c r="B37" s="35" t="s">
         <v>102</v>
@@ -6893,7 +6893,7 @@
       <c r="AH37" s="35"/>
       <c r="AI37" s="35"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="35"/>
       <c r="B38" s="35" t="s">
         <v>108</v>
@@ -6932,487 +6932,487 @@
       <c r="AH38" s="35"/>
       <c r="AI38" s="35"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7421,19 +7421,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="70" customWidth="1"/>
-    <col min="3" max="4" width="10.453125" style="70" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="49.7265625" style="70" customWidth="1"/>
-    <col min="7" max="16384" width="3.90625" style="70"/>
+    <col min="1" max="1" width="4.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="70" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="70" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="70" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="70" customWidth="1"/>
+    <col min="7" max="16384" width="3.85546875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" s="56" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="54" t="s">
         <v>114</v>
       </c>
@@ -7443,17 +7445,17 @@
       <c r="E1" s="54"/>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
         <v>115</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="59" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" s="59" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="60">
         <v>1</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="62">
-        <v>43370</v>
+        <v>43328</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>122</v>
@@ -7493,7 +7495,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="59" customFormat="1" ht="58" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.35">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -7538,28 +7540,28 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="72" t="s">
         <v>11</v>
       </c>
@@ -7577,7 +7579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
         <v>64</v>
@@ -7631,7 +7633,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="19" t="s">
         <v>65</v>
@@ -7647,7 +7649,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="58" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -7665,7 +7667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:7" ht="105" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>48</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="58" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:7" ht="60" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="116" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:7" ht="120" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:7" ht="105" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:7" ht="105" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="58" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
@@ -7791,7 +7793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>54</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="72.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -7845,63 +7847,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="72" t="s">
         <v>11</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
@@ -7937,7 +7939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="29" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
@@ -7978,37 +7980,37 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="1" width="3.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C3" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C4" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C5" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C6" s="17" t="s">
         <v>105</v>
       </c>
@@ -8018,7 +8020,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C7" s="17" t="s">
         <v>107</v>
       </c>
@@ -8028,37 +8030,37 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C8" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>99</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>100</v>
       </c>
@@ -8069,47 +8071,47 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C22" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
@@ -8131,7 +8133,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="24"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="26" t="s">
         <v>34</v>
@@ -8151,7 +8153,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C26" s="29"/>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
@@ -8169,7 +8171,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C27" s="21" t="s">
         <v>31</v>
       </c>
@@ -8191,7 +8193,7 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="24"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C28" s="33"/>
       <c r="D28" s="26" t="s">
         <v>46</v>
@@ -8211,7 +8213,7 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="28"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C29" s="34"/>
       <c r="D29" s="30" t="s">
         <v>101</v>
@@ -8231,7 +8233,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C30" s="21" t="s">
         <v>32</v>
       </c>
@@ -8253,7 +8255,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="24"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C31" s="33"/>
       <c r="D31" s="26" t="s">
         <v>47</v>
@@ -8273,7 +8275,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="28"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C32" s="34"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CD188F-5DE8-405C-B2E0-D050B88F749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C37DFE-258A-4280-8F36-DE8B3EF1251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">テスト種別!$B$3:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テスト種別!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">テスト種別!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>目的</t>
     <phoneticPr fontId="2"/>
@@ -1738,23 +1738,6 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
-  <si>
-    <t>※1.1版以前の履歴は、以下を参照してください。</t>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト種別&amp;観点カタログ変更履歴_第1.1版以前.pdf</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
@@ -1763,7 +1746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2108,14 +2091,6 @@
       <sz val="10"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -4235,7 +4210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4443,9 +4418,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7419,10 +7391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7445,83 +7417,70 @@
       <c r="E1" s="54"/>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="57" t="s">
+    <row r="2" spans="1:6" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B2" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C2" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E2" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="59" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60">
+    <row r="3" spans="1:6" s="59" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B3" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C3" s="62">
         <v>43328</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D3" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E3" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F3" s="64" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A6" s="65">
+    <row r="4" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A4" s="65">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B4" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C4" s="67">
         <v>44651</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D4" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E4" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F4" s="69" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{CD2569B6-57F5-47A6-AFED-45D1675380B9}"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
@@ -7562,10 +7521,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7904,10 +7863,10 @@
     </row>
     <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C37DFE-258A-4280-8F36-DE8B3EF1251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5786D1-652E-47D0-997A-27BC1C95DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5786D1-652E-47D0-997A-27BC1C95DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B62020-5247-4877-81C0-D76C871C7D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -5481,7 +5481,7 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7393,9 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B62020-5247-4877-81C0-D76C871C7D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80FB092-490B-4F60-92A0-BDBAC7E9F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">テスト種別!$B$3:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テスト種別!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">テスト種別!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
   <si>
     <t>目的</t>
     <phoneticPr fontId="2"/>
@@ -1737,6 +1737,28 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※1.0版、1.1版は内部向け文書のため欠番</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケツバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2523,34 +2545,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="double">
         <color indexed="64"/>
@@ -2575,6 +2569,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="560">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4210,7 +4228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4378,28 +4396,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="512" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="26" xfId="512" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4423,6 +4435,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -7391,18 +7415,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="70" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="70" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="70" customWidth="1"/>
-    <col min="7" max="16384" width="3.85546875" style="70"/>
+    <col min="1" max="1" width="4.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="68" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="3.85546875" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="56" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -7415,63 +7439,73 @@
       <c r="E1" s="54"/>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:6" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B3" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C3" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D3" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E3" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F3" s="71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="59" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60">
+    <row r="4" spans="1:6" s="57" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C4" s="60">
         <v>43328</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E4" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F4" s="62" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A4" s="65">
+    <row r="5" spans="1:6" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A5" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B5" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C5" s="65">
         <v>44651</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F5" s="67" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7519,10 +7553,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7861,10 +7895,10 @@
     </row>
     <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80FB092-490B-4F60-92A0-BDBAC7E9F056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350ACBA-D960-4ABB-B9F7-0FA072ECD30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4430,23 +4430,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="512" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="512" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -7407,14 +7407,18 @@
   <hyperlinks>
     <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="8" orientation="landscape" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088BBD6-9A94-4CDA-A93D-7DBA69675E41}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7440,32 +7444,32 @@
       <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="69" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7512,7 +7516,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
@@ -7528,7 +7532,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7553,10 +7557,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="3" t="s">
         <v>79</v>
       </c>
@@ -7895,10 +7899,10 @@
     </row>
     <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
@@ -7955,7 +7959,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="60" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="15" max="6" man="1"/>
   </rowBreaks>
@@ -8287,6 +8291,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350ACBA-D960-4ABB-B9F7-0FA072ECD30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1263E9F-B74A-4EE6-9134-009F792E9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1739,23 +1739,23 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>※1.0版、1.1版は内部向け文書のため欠番</t>
+    <t>※1.0版、1.1版はTIS社内限定公開のため欠番</t>
     <rPh sb="4" eb="5">
       <t>ハン</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>ハン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="14" eb="16">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>ケツバン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -5507,12 +5507,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="4.140625" style="38"/>
+    <col min="1" max="16384" width="4.1796875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -5549,7 +5549,7 @@
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="39"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5586,7 +5586,7 @@
       <c r="AH2" s="35"/>
       <c r="AI2" s="35"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5623,7 +5623,7 @@
       <c r="AH3" s="35"/>
       <c r="AI3" s="35"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5660,7 +5660,7 @@
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -5697,7 +5697,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -5734,7 +5734,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -5771,7 +5771,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="35"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -5808,7 +5808,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5845,7 +5845,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -5882,7 +5882,7 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="35"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -5919,7 +5919,7 @@
       <c r="AH11" s="35"/>
       <c r="AI11" s="35"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -5956,7 +5956,7 @@
       <c r="AH12" s="35"/>
       <c r="AI12" s="35"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -5993,7 +5993,7 @@
       <c r="AH13" s="35"/>
       <c r="AI13" s="35"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -6030,7 +6030,7 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6067,7 +6067,7 @@
       <c r="AH15" s="35"/>
       <c r="AI15" s="35"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -6104,7 +6104,7 @@
       <c r="AH16" s="35"/>
       <c r="AI16" s="35"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6141,7 +6141,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="35"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -6178,7 +6178,7 @@
       <c r="AH18" s="35"/>
       <c r="AI18" s="35"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -6215,7 +6215,7 @@
       <c r="AH19" s="35"/>
       <c r="AI19" s="35"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -6252,7 +6252,7 @@
       <c r="AH20" s="35"/>
       <c r="AI20" s="35"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6289,7 +6289,7 @@
       <c r="AH21" s="35"/>
       <c r="AI21" s="35"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -6326,7 +6326,7 @@
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -6365,7 +6365,7 @@
       <c r="AH23" s="35"/>
       <c r="AI23" s="35"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -6402,7 +6402,7 @@
       <c r="AH24" s="35"/>
       <c r="AI24" s="35"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6441,7 +6441,7 @@
       <c r="AH25" s="35"/>
       <c r="AI25" s="35"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -6478,7 +6478,7 @@
       <c r="AH26" s="35"/>
       <c r="AI26" s="35"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6515,7 +6515,7 @@
       <c r="AH27" s="35"/>
       <c r="AI27" s="35"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -6552,7 +6552,7 @@
       <c r="AH28" s="35"/>
       <c r="AI28" s="35"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -6589,7 +6589,7 @@
       <c r="AH29" s="35"/>
       <c r="AI29" s="35"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -6626,7 +6626,7 @@
       <c r="AH30" s="35"/>
       <c r="AI30" s="35"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -6663,7 +6663,7 @@
       <c r="AH31" s="35"/>
       <c r="AI31" s="35"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.6">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -6700,7 +6700,7 @@
       <c r="AH32" s="35"/>
       <c r="AI32" s="35"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" ht="25.5" x14ac:dyDescent="0.6">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -6737,7 +6737,7 @@
       <c r="AH33" s="35"/>
       <c r="AI33" s="35"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -6774,7 +6774,7 @@
       <c r="AH34" s="35"/>
       <c r="AI34" s="35"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -6811,7 +6811,7 @@
       <c r="AH35" s="35"/>
       <c r="AI35" s="35"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -6848,7 +6848,7 @@
       <c r="AH36" s="35"/>
       <c r="AI36" s="35"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="35"/>
       <c r="B37" s="35" t="s">
         <v>102</v>
@@ -6889,7 +6889,7 @@
       <c r="AH37" s="35"/>
       <c r="AI37" s="35"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="35"/>
       <c r="B38" s="35" t="s">
         <v>108</v>
@@ -6928,480 +6928,480 @@
       <c r="AH38" s="35"/>
       <c r="AI38" s="35"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7423,17 +7423,17 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="68" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="68" customWidth="1"/>
-    <col min="7" max="16384" width="3.85546875" style="68"/>
+    <col min="1" max="1" width="4.453125" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="68" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="49.7265625" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="3.81640625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="56" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="54" t="s">
         <v>114</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="E1" s="54"/>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="71" t="s">
         <v>128</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="69" t="s">
         <v>115</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="57" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="57" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A4" s="58">
         <v>1</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="57" customFormat="1" ht="58" x14ac:dyDescent="0.5">
       <c r="A5" s="63">
         <v>2</v>
       </c>
@@ -7535,28 +7535,28 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.81640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="17.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B3" s="73" t="s">
         <v>11</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
         <v>64</v>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="19" t="s">
         <v>65</v>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="58" x14ac:dyDescent="0.5">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="105" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
       <c r="B9" s="12" t="s">
         <v>48</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="60" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="58" x14ac:dyDescent="0.5">
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="120" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="116" x14ac:dyDescent="0.5">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="105" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="105" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="101.5" x14ac:dyDescent="0.5">
       <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" ht="58" x14ac:dyDescent="0.5">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="43.5" x14ac:dyDescent="0.5">
       <c r="B16" s="14" t="s">
         <v>54</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="75" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="72.5" x14ac:dyDescent="0.5">
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -7842,63 +7842,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="16" x14ac:dyDescent="0.5">
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B30" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B33" s="73" t="s">
         <v>11</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="29" x14ac:dyDescent="0.5">
       <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
@@ -7975,37 +7975,37 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B2" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C3" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C4" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C5" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C6" s="17" t="s">
         <v>105</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C7" s="17" t="s">
         <v>107</v>
       </c>
@@ -8025,37 +8025,37 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C8" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C14" s="17" t="s">
         <v>99</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C15" s="17" t="s">
         <v>100</v>
       </c>
@@ -8066,47 +8066,47 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.5">
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C22" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="24"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C25" s="25"/>
       <c r="D25" s="26" t="s">
         <v>34</v>
@@ -8148,7 +8148,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C26" s="29"/>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
@@ -8166,7 +8166,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="32"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C27" s="21" t="s">
         <v>31</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="24"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C28" s="33"/>
       <c r="D28" s="26" t="s">
         <v>46</v>
@@ -8208,7 +8208,7 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="28"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C29" s="34"/>
       <c r="D29" s="30" t="s">
         <v>101</v>
@@ -8228,7 +8228,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="32"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C30" s="21" t="s">
         <v>32</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="24"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C31" s="33"/>
       <c r="D31" s="26" t="s">
         <v>47</v>
@@ -8270,7 +8270,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="28"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C32" s="34"/>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>

--- a/docs/テスト種別カタログ.xlsx
+++ b/docs/テスト種別カタログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1263E9F-B74A-4EE6-9134-009F792E9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B3022-C1DC-47F3-AA57-5D93F34EF6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5500,9 +5500,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7409,7 +7406,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="135" orientation="landscape" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7515,6 +7512,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
